--- a/Newfolder/dsr/data/International_Myself_form_data_updated.xlsx
+++ b/Newfolder/dsr/data/International_Myself_form_data_updated.xlsx
@@ -573,7 +573,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:R10"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Newfolder/dsr/data/International_Myself_form_data_updated.xlsx
+++ b/Newfolder/dsr/data/International_Myself_form_data_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A477A645-4B7E-4608-BF57-9CFFC3892E8A}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B80B8127-99CC-4E83-B785-F3B1BB7F3584}"/>
   <bookViews>
-    <workbookView xWindow="23835" yWindow="570" windowWidth="26250" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20730" yWindow="0" windowWidth="28155" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="54">
   <si>
     <t>Email Address</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>Egypt</t>
+  </si>
+  <si>
+    <t>2020</t>
   </si>
 </sst>
 </file>
@@ -570,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,10 +663,10 @@
         <v>38</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>37</v>
@@ -672,7 +675,7 @@
         <v>5712345574</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" s="7">
         <v>19801</v>
@@ -681,7 +684,7 @@
         <v>31</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>18</v>
@@ -693,14 +696,10 @@
         <v>18</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
@@ -710,10 +709,10 @@
         <v>38</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>37</v>
@@ -722,7 +721,7 @@
         <v>5712345574</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G3" s="7">
         <v>19801</v>
@@ -731,7 +730,7 @@
         <v>31</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>18</v>
@@ -740,10 +739,10 @@
         <v>18</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -756,10 +755,10 @@
         <v>38</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>37</v>
@@ -768,7 +767,7 @@
         <v>5712345574</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" s="7">
         <v>19801</v>
@@ -777,7 +776,7 @@
         <v>31</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>18</v>
@@ -789,7 +788,7 @@
         <v>18</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
@@ -802,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>37</v>
@@ -814,7 +813,7 @@
         <v>5712345574</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G5" s="7">
         <v>19801</v>
@@ -823,7 +822,7 @@
         <v>31</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>18</v>
@@ -835,23 +834,29 @@
         <v>18</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>37</v>
@@ -860,7 +865,7 @@
         <v>5712345574</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6" s="7">
         <v>19801</v>
@@ -869,7 +874,7 @@
         <v>31</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>18</v>
@@ -881,17 +886,15 @@
         <v>18</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -910,7 +913,7 @@
         <v>5712345574</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G7" s="7">
         <v>19801</v>
@@ -933,10 +936,10 @@
       <c r="M7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
@@ -982,22 +985,22 @@
         <v>19</v>
       </c>
       <c r="N8" s="5"/>
-      <c r="O8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>37</v>
@@ -1006,7 +1009,7 @@
         <v>5712345574</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G9" s="7">
         <v>19801</v>
@@ -1035,7 +1038,9 @@
       <c r="Q9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="R9" s="5"/>
+      <c r="R9" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -1054,7 +1059,7 @@
         <v>5712345574</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7">
         <v>19801</v>
@@ -1080,22 +1085,71 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5" t="s">
+      <c r="Q10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10" s="5"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="5">
+        <v>5712345574</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="7">
+        <v>19801</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" xr:uid="{FF8ED56F-D103-4630-9B98-A2766DA55C07}"/>
-    <hyperlink ref="A8" r:id="rId2" xr:uid="{912E83BC-7C78-420A-B9BF-57E03E83BAD4}"/>
-    <hyperlink ref="A9" r:id="rId3" xr:uid="{72966216-84DC-4511-9C02-05D1018B6BBB}"/>
-    <hyperlink ref="A10" r:id="rId4" xr:uid="{940EFE9D-258E-4277-9AF5-F3079173B8BC}"/>
-    <hyperlink ref="A2" r:id="rId5" xr:uid="{4674F4AF-8A5A-45A9-B6F4-4257DF1E8E98}"/>
-    <hyperlink ref="A3:A6" r:id="rId6" display="one@mailinator.com" xr:uid="{BFB2EF0A-58BF-4AED-B856-637FFD3F5392}"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{FF8ED56F-D103-4630-9B98-A2766DA55C07}"/>
+    <hyperlink ref="A7" r:id="rId2" xr:uid="{912E83BC-7C78-420A-B9BF-57E03E83BAD4}"/>
+    <hyperlink ref="A10" r:id="rId3" xr:uid="{72966216-84DC-4511-9C02-05D1018B6BBB}"/>
+    <hyperlink ref="A11" r:id="rId4" xr:uid="{940EFE9D-258E-4277-9AF5-F3079173B8BC}"/>
+    <hyperlink ref="A5" r:id="rId5" xr:uid="{4674F4AF-8A5A-45A9-B6F4-4257DF1E8E98}"/>
+    <hyperlink ref="A2:A10" r:id="rId6" display="one@mailinator.com" xr:uid="{BFB2EF0A-58BF-4AED-B856-637FFD3F5392}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{F790DF08-5025-4CD2-A05F-2FB951DF1294}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/Newfolder/dsr/data/International_Myself_form_data_updated.xlsx
+++ b/Newfolder/dsr/data/International_Myself_form_data_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B80B8127-99CC-4E83-B785-F3B1BB7F3584}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C804C9C-AF8C-4240-A05E-1544A6262747}"/>
   <bookViews>
-    <workbookView xWindow="20730" yWindow="0" windowWidth="28155" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31290" yWindow="840" windowWidth="22830" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="54">
   <si>
     <t>Email Address</t>
   </si>
@@ -573,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,13 +850,13 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>37</v>
@@ -865,7 +865,7 @@
         <v>5712345574</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G6" s="7">
         <v>19801</v>
@@ -891,20 +891,22 @@
       <c r="N6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="5"/>
+      <c r="O6" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>37</v>
@@ -913,7 +915,7 @@
         <v>5712345574</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G7" s="7">
         <v>19801</v>
@@ -936,11 +938,13 @@
       <c r="M7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P7" s="5"/>
+      <c r="N7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
     </row>
@@ -961,7 +965,7 @@
         <v>5712345574</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7">
         <v>19801</v>
@@ -984,23 +988,23 @@
       <c r="M8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="5"/>
+      <c r="N8" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="O8" s="5"/>
-      <c r="P8" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>37</v>
@@ -1009,7 +1013,7 @@
         <v>5712345574</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G9" s="7">
         <v>19801</v>
@@ -1018,7 +1022,7 @@
         <v>31</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>18</v>
@@ -1030,17 +1034,15 @@
         <v>18</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
+      <c r="O9" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="P9" s="5"/>
-      <c r="Q9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -1059,7 +1061,7 @@
         <v>5712345574</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7">
         <v>19801</v>
@@ -1068,7 +1070,7 @@
         <v>31</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>18</v>
@@ -1080,25 +1082,25 @@
         <v>18</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="P10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>37</v>
@@ -1107,7 +1109,7 @@
         <v>5712345574</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G11" s="7">
         <v>19801</v>
@@ -1133,23 +1135,768 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
+      <c r="Q11" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="R11" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="5">
+        <v>5712345574</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="7">
+        <v>19801</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" s="5"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="5">
+        <v>5712345574</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="7">
+        <v>19801</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="5">
+        <v>5712345574</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="7">
+        <v>19801</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="5">
+        <v>5712345574</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="7">
+        <v>19801</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="5">
+        <v>5712345574</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="7">
+        <v>19801</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="5">
+        <v>5712345574</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="7">
+        <v>19801</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="5">
+        <v>5712345574</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="7">
+        <v>19801</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="5">
+        <v>5712345574</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="7">
+        <v>19801</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="5">
+        <v>5712345574</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="7">
+        <v>19801</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="5">
+        <v>5712345574</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="7">
+        <v>19801</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="5">
+        <v>5712345574</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="7">
+        <v>19801</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="5">
+        <v>5712345574</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="7">
+        <v>19801</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="5">
+        <v>5712345574</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="7">
+        <v>19801</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R31" s="5"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="5">
+        <v>5712345574</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="7">
+        <v>19801</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" xr:uid="{FF8ED56F-D103-4630-9B98-A2766DA55C07}"/>
-    <hyperlink ref="A7" r:id="rId2" xr:uid="{912E83BC-7C78-420A-B9BF-57E03E83BAD4}"/>
-    <hyperlink ref="A10" r:id="rId3" xr:uid="{72966216-84DC-4511-9C02-05D1018B6BBB}"/>
-    <hyperlink ref="A11" r:id="rId4" xr:uid="{940EFE9D-258E-4277-9AF5-F3079173B8BC}"/>
+    <hyperlink ref="A8" r:id="rId1" xr:uid="{FF8ED56F-D103-4630-9B98-A2766DA55C07}"/>
+    <hyperlink ref="A9" r:id="rId2" xr:uid="{912E83BC-7C78-420A-B9BF-57E03E83BAD4}"/>
+    <hyperlink ref="A12" r:id="rId3" xr:uid="{72966216-84DC-4511-9C02-05D1018B6BBB}"/>
+    <hyperlink ref="A13" r:id="rId4" xr:uid="{940EFE9D-258E-4277-9AF5-F3079173B8BC}"/>
     <hyperlink ref="A5" r:id="rId5" xr:uid="{4674F4AF-8A5A-45A9-B6F4-4257DF1E8E98}"/>
-    <hyperlink ref="A2:A10" r:id="rId6" display="one@mailinator.com" xr:uid="{BFB2EF0A-58BF-4AED-B856-637FFD3F5392}"/>
-    <hyperlink ref="A8" r:id="rId7" xr:uid="{F790DF08-5025-4CD2-A05F-2FB951DF1294}"/>
+    <hyperlink ref="A2:A12" r:id="rId6" display="one@mailinator.com" xr:uid="{BFB2EF0A-58BF-4AED-B856-637FFD3F5392}"/>
+    <hyperlink ref="A10" r:id="rId7" xr:uid="{F790DF08-5025-4CD2-A05F-2FB951DF1294}"/>
+    <hyperlink ref="A6" r:id="rId8" xr:uid="{36509690-7B73-4558-B476-C93B01D675DC}"/>
+    <hyperlink ref="A7" r:id="rId9" xr:uid="{D282C6EB-D44E-415A-A85F-C2CC88846FFF}"/>
+    <hyperlink ref="A27" r:id="rId10" xr:uid="{50C3CD4F-CF33-42A7-9739-C6F3793B8D15}"/>
+    <hyperlink ref="A28" r:id="rId11" xr:uid="{6AEEA381-486B-4A10-BA52-6508AB0FD3CA}"/>
+    <hyperlink ref="A31" r:id="rId12" xr:uid="{3AEAEE80-8385-4BCE-8F30-0843F48EB750}"/>
+    <hyperlink ref="A32" r:id="rId13" xr:uid="{B30DE524-F522-4633-862B-3B1482154E10}"/>
+    <hyperlink ref="A24" r:id="rId14" xr:uid="{7E2AC143-8A7A-445D-B63F-C6DF734B26D5}"/>
+    <hyperlink ref="A21:A31" r:id="rId15" display="one@mailinator.com" xr:uid="{426DCC74-FEFC-40CB-82E9-2E6D0C7F0AF3}"/>
+    <hyperlink ref="A29" r:id="rId16" xr:uid="{790DBEA1-E1DB-482F-8761-4C86D129261F}"/>
+    <hyperlink ref="A25" r:id="rId17" xr:uid="{6EB2A0A9-F32C-4E03-A9B9-597EB0F783C3}"/>
+    <hyperlink ref="A26" r:id="rId18" xr:uid="{2E9446C6-8CEC-4FD5-984C-D726D554F426}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
--- a/Newfolder/dsr/data/International_Myself_form_data_updated.xlsx
+++ b/Newfolder/dsr/data/International_Myself_form_data_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C804C9C-AF8C-4240-A05E-1544A6262747}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8070D1D3-FB82-45EA-81A3-A6882B517715}"/>
   <bookViews>
-    <workbookView xWindow="31290" yWindow="840" windowWidth="22830" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="525" windowWidth="24750" windowHeight="13815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="67">
   <si>
     <t>Email Address</t>
   </si>
@@ -182,6 +182,51 @@
   </si>
   <si>
     <t>2020</t>
+  </si>
+  <si>
+    <t>intertesr@mailinator.com</t>
+  </si>
+  <si>
+    <t>Intertesr</t>
+  </si>
+  <si>
+    <t>Intert</t>
+  </si>
+  <si>
+    <t>05/03/2015</t>
+  </si>
+  <si>
+    <t>87654</t>
+  </si>
+  <si>
+    <t>87655</t>
+  </si>
+  <si>
+    <t>87656</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Markt 100
+Apt 4
+Peer 3990</t>
+  </si>
+  <si>
+    <t>05/03/2016</t>
+  </si>
+  <si>
+    <t>Markt 100
+Apt 4
+Peer 3991</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t>Markt 100
+Apt 4
+Peer 3992</t>
   </si>
 </sst>
 </file>
@@ -253,22 +298,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -573,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +632,7 @@
     <col min="4" max="4" width="12.28515625" style="3" customWidth="1"/>
     <col min="5" max="5" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -621,7 +666,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -659,582 +704,582 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="2">
         <v>5712345574</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="2">
         <v>19801</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="5" t="s">
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="2">
         <v>5712345574</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="2">
         <v>19801</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="5" t="s">
+      <c r="J3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="2">
         <v>5712345574</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="2">
         <v>19801</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="5" t="s">
+      <c r="J4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="2">
         <v>5712345574</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="2">
         <v>19801</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="5" t="s">
+      <c r="J5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="2">
         <v>5712345574</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="2">
         <v>19801</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="5" t="s">
+      <c r="J6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="2">
         <v>5712345574</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="2">
         <v>19801</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="5" t="s">
+      <c r="J7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5" t="s">
+      <c r="O7" s="2"/>
+      <c r="P7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="2">
         <v>5712345574</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="2">
         <v>19801</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="5" t="s">
+      <c r="J8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="2">
         <v>5712345574</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="2">
         <v>19801</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="5" t="s">
+      <c r="J9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5" t="s">
+      <c r="N9" s="2"/>
+      <c r="O9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="2">
         <v>5712345574</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="2">
         <v>19801</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="5" t="s">
+      <c r="J10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5" t="s">
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="2">
         <v>5712345574</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="2">
         <v>19801</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" s="5" t="s">
+      <c r="J11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5" t="s">
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R11" s="5" t="s">
+      <c r="R11" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="2">
         <v>5712345574</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="2">
         <v>19801</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" s="5" t="s">
+      <c r="J12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5" t="s">
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R12" s="5"/>
+      <c r="R12" s="2"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="2">
         <v>5712345574</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="2">
         <v>19801</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" s="5" t="s">
+      <c r="J13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5" t="s">
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1257,7 +1302,7 @@
       <c r="F20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -1294,585 +1339,137 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="5">
-        <v>5712345574</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="7">
-        <v>19801</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>31</v>
+    <row r="21" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="5">
-        <v>5712345574</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" s="7">
-        <v>19801</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>31</v>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M22" s="5" t="s">
+      <c r="M22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="5">
-        <v>5712345574</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="7">
-        <v>19801</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>31</v>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="5">
-        <v>5712345574</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" s="7">
-        <v>19801</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P24" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="5">
-        <v>5712345574</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="7">
-        <v>19801</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="5">
-        <v>5712345574</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G26" s="7">
-        <v>19801</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="5">
-        <v>5712345574</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G27" s="7">
-        <v>19801</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N27" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="5">
-        <v>5712345574</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G28" s="7">
-        <v>19801</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="5">
-        <v>5712345574</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G29" s="7">
-        <v>19801</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="5">
-        <v>5712345574</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" s="7">
-        <v>19801</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R30" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="5">
-        <v>5712345574</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G31" s="7">
-        <v>19801</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R31" s="5"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="5">
-        <v>5712345574</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G32" s="7">
-        <v>19801</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M32" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1886,17 +1483,10 @@
     <hyperlink ref="A10" r:id="rId7" xr:uid="{F790DF08-5025-4CD2-A05F-2FB951DF1294}"/>
     <hyperlink ref="A6" r:id="rId8" xr:uid="{36509690-7B73-4558-B476-C93B01D675DC}"/>
     <hyperlink ref="A7" r:id="rId9" xr:uid="{D282C6EB-D44E-415A-A85F-C2CC88846FFF}"/>
-    <hyperlink ref="A27" r:id="rId10" xr:uid="{50C3CD4F-CF33-42A7-9739-C6F3793B8D15}"/>
-    <hyperlink ref="A28" r:id="rId11" xr:uid="{6AEEA381-486B-4A10-BA52-6508AB0FD3CA}"/>
-    <hyperlink ref="A31" r:id="rId12" xr:uid="{3AEAEE80-8385-4BCE-8F30-0843F48EB750}"/>
-    <hyperlink ref="A32" r:id="rId13" xr:uid="{B30DE524-F522-4633-862B-3B1482154E10}"/>
-    <hyperlink ref="A24" r:id="rId14" xr:uid="{7E2AC143-8A7A-445D-B63F-C6DF734B26D5}"/>
-    <hyperlink ref="A21:A31" r:id="rId15" display="one@mailinator.com" xr:uid="{426DCC74-FEFC-40CB-82E9-2E6D0C7F0AF3}"/>
-    <hyperlink ref="A29" r:id="rId16" xr:uid="{790DBEA1-E1DB-482F-8761-4C86D129261F}"/>
-    <hyperlink ref="A25" r:id="rId17" xr:uid="{6EB2A0A9-F32C-4E03-A9B9-597EB0F783C3}"/>
-    <hyperlink ref="A26" r:id="rId18" xr:uid="{2E9446C6-8CEC-4FD5-984C-D726D554F426}"/>
+    <hyperlink ref="A21" r:id="rId10" xr:uid="{965DA239-F030-4B97-9DE9-FEA068F5FD94}"/>
+    <hyperlink ref="A22:A23" r:id="rId11" display="intertesr@mailinator.com" xr:uid="{399995A8-9742-43BC-9421-50E0B466DE8C}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/Newfolder/dsr/data/International_Myself_form_data_updated.xlsx
+++ b/Newfolder/dsr/data/International_Myself_form_data_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8070D1D3-FB82-45EA-81A3-A6882B517715}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2978581B-9029-4D77-983C-EC635729A365}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="525" windowWidth="24750" windowHeight="13815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28920" yWindow="345" windowWidth="24750" windowHeight="13815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="61">
   <si>
     <t>Email Address</t>
   </si>
@@ -196,37 +196,15 @@
     <t>05/03/2015</t>
   </si>
   <si>
-    <t>87654</t>
-  </si>
-  <si>
     <t>87655</t>
   </si>
   <si>
-    <t>87656</t>
-  </si>
-  <si>
     <t>Chennai</t>
-  </si>
-  <si>
-    <t>Markt 100
-Apt 4
-Peer 3990</t>
-  </si>
-  <si>
-    <t>05/03/2016</t>
   </si>
   <si>
     <t>Markt 100
 Apt 4
 Peer 3991</t>
-  </si>
-  <si>
-    <t>05/03/2017</t>
-  </si>
-  <si>
-    <t>Markt 100
-Apt 4
-Peer 3992</t>
   </si>
 </sst>
 </file>
@@ -618,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,10 +1338,10 @@
         <v>58</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>18</v>
@@ -1372,104 +1350,16 @@
         <v>18</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
-    </row>
-    <row r="22" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-    </row>
-    <row r="23" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1483,10 +1373,9 @@
     <hyperlink ref="A10" r:id="rId7" xr:uid="{F790DF08-5025-4CD2-A05F-2FB951DF1294}"/>
     <hyperlink ref="A6" r:id="rId8" xr:uid="{36509690-7B73-4558-B476-C93B01D675DC}"/>
     <hyperlink ref="A7" r:id="rId9" xr:uid="{D282C6EB-D44E-415A-A85F-C2CC88846FFF}"/>
-    <hyperlink ref="A21" r:id="rId10" xr:uid="{965DA239-F030-4B97-9DE9-FEA068F5FD94}"/>
-    <hyperlink ref="A22:A23" r:id="rId11" display="intertesr@mailinator.com" xr:uid="{399995A8-9742-43BC-9421-50E0B466DE8C}"/>
+    <hyperlink ref="A21" r:id="rId10" xr:uid="{399995A8-9742-43BC-9421-50E0B466DE8C}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/Newfolder/dsr/data/International_Myself_form_data_updated.xlsx
+++ b/Newfolder/dsr/data/International_Myself_form_data_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="177" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DE03889-830E-4939-B389-EF4347FC3CB1}"/>
+  <xr:revisionPtr revIDLastSave="178" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2AA2D08-363C-4601-A0FA-ABC63584962C}"/>
   <bookViews>
-    <workbookView xWindow="29310" yWindow="0" windowWidth="23280" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8175" yWindow="345" windowWidth="24270" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="73">
   <si>
     <t>Email Address</t>
   </si>
@@ -642,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="J4" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1438,7 +1438,9 @@
         <v>19</v>
       </c>
       <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
+      <c r="O22" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>

--- a/Newfolder/dsr/data/International_Myself_form_data_updated.xlsx
+++ b/Newfolder/dsr/data/International_Myself_form_data_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="178" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2AA2D08-363C-4601-A0FA-ABC63584962C}"/>
+  <xr:revisionPtr revIDLastSave="187" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDAAED9C-5AB4-449B-90A9-B791D5CCA960}"/>
   <bookViews>
-    <workbookView xWindow="8175" yWindow="345" windowWidth="24270" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4455" yWindow="345" windowWidth="26250" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="67">
   <si>
     <t>Email Address</t>
   </si>
@@ -186,70 +186,50 @@
     <t>05/03/1990</t>
   </si>
   <si>
-    <t>pdi7cb8bqcmjve@mailinator.com</t>
-  </si>
-  <si>
-    <t>Mpbdcxujclpljeifnm</t>
-  </si>
-  <si>
-    <t>Rsyqzongjnmfedbfohap</t>
-  </si>
-  <si>
-    <t>07/03/1979</t>
-  </si>
-  <si>
-    <t>d6rcynyu1jggwg@mailinator.com</t>
-  </si>
-  <si>
-    <t>Vmwhynukeidpbmagep</t>
-  </si>
-  <si>
-    <t>Dksqbjrqnjimeamieczt</t>
-  </si>
-  <si>
-    <t>05/03/1992</t>
-  </si>
-  <si>
-    <t>03/03/1990</t>
-  </si>
-  <si>
-    <t>87656</t>
-  </si>
-  <si>
-    <t>Gindy</t>
-  </si>
-  <si>
-    <t>1 edu street</t>
-  </si>
-  <si>
-    <t>87657</t>
-  </si>
-  <si>
-    <t>Markt 100
-Apt 4
-Peer 3992</t>
-  </si>
-  <si>
-    <t>Shethal</t>
-  </si>
-  <si>
     <t>87654</t>
   </si>
   <si>
-    <t>Thambaram</t>
-  </si>
-  <si>
-    <t>100 Gandhiroad</t>
-  </si>
-  <si>
-    <t>ParupaParen</t>
+    <t>aarav.sharma@mailinator.com</t>
+  </si>
+  <si>
+    <t>Aarav</t>
+  </si>
+  <si>
+    <t>Sharma</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>101 Marine Drive, Churchgate</t>
+  </si>
+  <si>
+    <t>ishaan.patel@mailinator.com</t>
+  </si>
+  <si>
+    <t>Ishaan</t>
+  </si>
+  <si>
+    <t>Patel</t>
+  </si>
+  <si>
+    <t>Gujarat</t>
+  </si>
+  <si>
+    <t>Ahmedabad</t>
+  </si>
+  <si>
+    <t>204 Satellite Road, Vastrapur</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +257,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -286,7 +278,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -309,17 +301,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -334,8 +338,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -640,93 +656,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J4" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="46.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="30" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="46.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -748,7 +764,7 @@
       <c r="H2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>49</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -770,7 +786,7 @@
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -787,12 +803,12 @@
         <v>37</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>49</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -814,7 +830,7 @@
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -831,12 +847,12 @@
         <v>37</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>49</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -858,7 +874,7 @@
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -910,7 +926,7 @@
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -960,7 +976,7 @@
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1010,7 +1026,7 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1058,7 +1074,7 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1106,7 +1122,7 @@
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1154,7 +1170,7 @@
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1204,7 +1220,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1252,7 +1268,7 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1299,241 +1315,153 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="M20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="N20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="O20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="P20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="Q20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="R20" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="1" t="s">
+    <row r="21" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1" t="s">
+      <c r="D21" s="8">
+        <v>39092</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N21" s="1"/>
+      <c r="G21" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="9">
+        <v>400020</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
+    <row r="22" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="8">
+        <v>39056</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>19</v>
+      <c r="G22" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="9">
+        <v>380015</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="N22" s="1"/>
-      <c r="O22" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
+      <c r="Q22" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="R22" s="1"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-    </row>
-    <row r="24" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1548,8 +1476,8 @@
     <hyperlink ref="A7" r:id="rId8" xr:uid="{D282C6EB-D44E-415A-A85F-C2CC88846FFF}"/>
     <hyperlink ref="A3" r:id="rId9" xr:uid="{41390868-214A-492A-AD47-A784F1D63189}"/>
     <hyperlink ref="A2" r:id="rId10" xr:uid="{16A975C6-F817-4955-A241-DF36A9777A85}"/>
-    <hyperlink ref="A23" r:id="rId11" xr:uid="{9B259671-6017-465A-A6FA-D5D0C54D2D4A}"/>
-    <hyperlink ref="A24" r:id="rId12" xr:uid="{9DEEEE5B-CC95-4D46-8ADF-93D11B405DD9}"/>
+    <hyperlink ref="A21" r:id="rId11" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{7D88289A-65EB-42AD-993F-5C3D61AABFC4}"/>
+    <hyperlink ref="A22" r:id="rId12" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{FB86A015-4794-4C4C-AA21-E0DA9B34F281}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId13"/>

--- a/Newfolder/dsr/data/International_Myself_form_data_updated.xlsx
+++ b/Newfolder/dsr/data/International_Myself_form_data_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="187" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDAAED9C-5AB4-449B-90A9-B791D5CCA960}"/>
+  <xr:revisionPtr revIDLastSave="193" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83B398AF-7ED0-4CD8-98BC-0FBC4B824C71}"/>
   <bookViews>
     <workbookView xWindow="4455" yWindow="345" windowWidth="26250" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="69">
   <si>
     <t>Email Address</t>
   </si>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t>204 Satellite Road, Vastrapur</t>
+  </si>
+  <si>
+    <t>1/10/2007</t>
+  </si>
+  <si>
+    <t>12/5/2006</t>
   </si>
 </sst>
 </file>
@@ -321,7 +327,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -338,20 +344,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -659,7 +662,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1372,17 +1375,17 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="8">
-        <v>39092</v>
+      <c r="D21" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9" t="s">
@@ -1400,13 +1403,13 @@
       <c r="J21" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="K21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" s="10" t="s">
+      <c r="K21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="6" t="s">
         <v>19</v>
       </c>
       <c r="N21" s="1" t="s">
@@ -1418,17 +1421,17 @@
       <c r="R21" s="1"/>
     </row>
     <row r="22" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="8">
-        <v>39056</v>
+      <c r="D22" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9" t="s">
@@ -1446,13 +1449,13 @@
       <c r="J22" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="K22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="M22" s="10" t="s">
+      <c r="K22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="6" t="s">
         <v>24</v>
       </c>
       <c r="N22" s="1"/>

--- a/Newfolder/dsr/data/International_Myself_form_data_updated.xlsx
+++ b/Newfolder/dsr/data/International_Myself_form_data_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="193" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83B398AF-7ED0-4CD8-98BC-0FBC4B824C71}"/>
+  <xr:revisionPtr revIDLastSave="206" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EDF3E00-026A-46F6-97DF-9F6D4783FFCC}"/>
   <bookViews>
-    <workbookView xWindow="4455" yWindow="345" windowWidth="26250" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7635" yWindow="2415" windowWidth="26250" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="68">
   <si>
     <t>Email Address</t>
   </si>
@@ -189,24 +189,6 @@
     <t>87654</t>
   </si>
   <si>
-    <t>aarav.sharma@mailinator.com</t>
-  </si>
-  <si>
-    <t>Aarav</t>
-  </si>
-  <si>
-    <t>Sharma</t>
-  </si>
-  <si>
-    <t>Maharashtra</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t>101 Marine Drive, Churchgate</t>
-  </si>
-  <si>
     <t>ishaan.patel@mailinator.com</t>
   </si>
   <si>
@@ -216,19 +198,35 @@
     <t>Patel</t>
   </si>
   <si>
-    <t>Gujarat</t>
-  </si>
-  <si>
     <t>Ahmedabad</t>
   </si>
   <si>
     <t>204 Satellite Road, Vastrapur</t>
   </si>
   <si>
-    <t>1/10/2007</t>
-  </si>
-  <si>
     <t>12/5/2006</t>
+  </si>
+  <si>
+    <t>380015</t>
+  </si>
+  <si>
+    <t>Kabir</t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>3/22/2007</t>
+  </si>
+  <si>
+    <t>New Delhi</t>
+  </si>
+  <si>
+    <t>78 Connaught Place
+Block A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kabir.singh@mailinator.com </t>
   </si>
 </sst>
 </file>
@@ -327,7 +325,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -355,6 +353,9 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -661,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1375,33 +1376,33 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>55</v>
+      <c r="A21" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9" t="s">
         <v>37</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="9">
-        <v>400020</v>
+        <v>61</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>60</v>
+        <v>66</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>18</v>
@@ -1420,34 +1421,34 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H22" s="9">
+      <c r="G22" s="9">
         <v>380015</v>
       </c>
+      <c r="H22" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="I22" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>18</v>
@@ -1479,7 +1480,7 @@
     <hyperlink ref="A7" r:id="rId8" xr:uid="{D282C6EB-D44E-415A-A85F-C2CC88846FFF}"/>
     <hyperlink ref="A3" r:id="rId9" xr:uid="{41390868-214A-492A-AD47-A784F1D63189}"/>
     <hyperlink ref="A2" r:id="rId10" xr:uid="{16A975C6-F817-4955-A241-DF36A9777A85}"/>
-    <hyperlink ref="A21" r:id="rId11" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{7D88289A-65EB-42AD-993F-5C3D61AABFC4}"/>
+    <hyperlink ref="A21" r:id="rId11" xr:uid="{7D88289A-65EB-42AD-993F-5C3D61AABFC4}"/>
     <hyperlink ref="A22" r:id="rId12" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{FB86A015-4794-4C4C-AA21-E0DA9B34F281}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Newfolder/dsr/data/International_Myself_form_data_updated.xlsx
+++ b/Newfolder/dsr/data/International_Myself_form_data_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="206" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EDF3E00-026A-46F6-97DF-9F6D4783FFCC}"/>
+  <xr:revisionPtr revIDLastSave="213" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBE75A21-75CD-4D0F-BE44-381F3FEB9FDD}"/>
   <bookViews>
-    <workbookView xWindow="7635" yWindow="2415" windowWidth="26250" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13245" yWindow="390" windowWidth="26475" windowHeight="14445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="59">
   <si>
     <t>Email Address</t>
   </si>
@@ -189,51 +189,23 @@
     <t>87654</t>
   </si>
   <si>
-    <t>ishaan.patel@mailinator.com</t>
-  </si>
-  <si>
-    <t>Ishaan</t>
-  </si>
-  <si>
-    <t>Patel</t>
-  </si>
-  <si>
-    <t>Ahmedabad</t>
-  </si>
-  <si>
-    <t>204 Satellite Road, Vastrapur</t>
-  </si>
-  <si>
-    <t>12/5/2006</t>
-  </si>
-  <si>
-    <t>380015</t>
-  </si>
-  <si>
-    <t>Kabir</t>
-  </si>
-  <si>
-    <t>Singh</t>
-  </si>
-  <si>
-    <t>3/22/2007</t>
-  </si>
-  <si>
-    <t>New Delhi</t>
-  </si>
-  <si>
-    <t>78 Connaught Place
-Block A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kabir.singh@mailinator.com </t>
+    <t>tpidqbgccxolpb@mailinator.com</t>
+  </si>
+  <si>
+    <t>Jljtvsyqezgrvyuxzt</t>
+  </si>
+  <si>
+    <t>Lgsupwzdzdvijsadkndt</t>
+  </si>
+  <si>
+    <t>4/15/1977</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,18 +233,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -282,7 +242,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -305,27 +265,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -342,21 +287,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -660,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1319,7 +1250,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
@@ -1375,97 +1306,51 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>20</v>
-      </c>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="1">
+        <v>19801</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-    </row>
-    <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="9">
-        <v>380015</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R22" s="1"/>
+      <c r="R21" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1480,10 +1365,9 @@
     <hyperlink ref="A7" r:id="rId8" xr:uid="{D282C6EB-D44E-415A-A85F-C2CC88846FFF}"/>
     <hyperlink ref="A3" r:id="rId9" xr:uid="{41390868-214A-492A-AD47-A784F1D63189}"/>
     <hyperlink ref="A2" r:id="rId10" xr:uid="{16A975C6-F817-4955-A241-DF36A9777A85}"/>
-    <hyperlink ref="A21" r:id="rId11" xr:uid="{7D88289A-65EB-42AD-993F-5C3D61AABFC4}"/>
-    <hyperlink ref="A22" r:id="rId12" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{FB86A015-4794-4C4C-AA21-E0DA9B34F281}"/>
+    <hyperlink ref="A21" r:id="rId11" xr:uid="{1AB737C4-2388-47AD-A7A7-01C4358AE3F0}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>